--- a/data/KOH_data.xlsx
+++ b/data/KOH_data.xlsx
@@ -8,28 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahbritton/Documents/Dissertation/Ch4_DietTradeOffs/tradeoff_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F1974F-99F6-F04B-AB7D-C4BD3566BB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B402760-AFC8-D643-A469-B7C69DF58403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{F3F8205F-0BC4-1940-892C-1E5A2C216DA4}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{F3F8205F-0BC4-1940-892C-1E5A2C216DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminary" sheetId="1" r:id="rId1"/>
     <sheet name="KOH_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Preliminary!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Preliminary!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Preliminary!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Preliminary!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Preliminary!$B$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Preliminary!$B$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Preliminary!$B$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Preliminary!$B$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Preliminary!$B$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Preliminary!$B$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Preliminary!$B$8:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KOH_data!$A$1:$J$114</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
   <si>
     <t>Sample ID</t>
   </si>
@@ -58,15 +48,6 @@
     <t>%lost</t>
   </si>
   <si>
-    <t>Full_Mass</t>
-  </si>
-  <si>
-    <t>Before_Thorax</t>
-  </si>
-  <si>
-    <t>After_Thorax</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -136,12 +117,6 @@
     <t>Drying issue- oven not on for 12 hours; started to disarticulate before drying- full mass might be too low; no DI rinse</t>
   </si>
   <si>
-    <t>Muscle_Mass</t>
-  </si>
-  <si>
-    <t>Muscle_per_full_mass</t>
-  </si>
-  <si>
     <t>Drying issue- oven not on for 12 hours; started to disarticulate before drying- full mass might be too low; no DI rinse; cutcle missing</t>
   </si>
   <si>
@@ -151,9 +126,6 @@
     <t>Drying issue- oven not on for 12 hours; started to disarticulate before drying- full mass might be too low; no DI rinse; burned and cuticle missing; falling apart in KOH</t>
   </si>
   <si>
-    <t>Consdier excluding?</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -401,6 +373,129 @@
   </si>
   <si>
     <t>Larval_ID</t>
+  </si>
+  <si>
+    <t>T432</t>
+  </si>
+  <si>
+    <t>T438</t>
+  </si>
+  <si>
+    <t>T471</t>
+  </si>
+  <si>
+    <t>T473</t>
+  </si>
+  <si>
+    <t>T475</t>
+  </si>
+  <si>
+    <t>T306</t>
+  </si>
+  <si>
+    <t>T320</t>
+  </si>
+  <si>
+    <t>T342</t>
+  </si>
+  <si>
+    <t>T371</t>
+  </si>
+  <si>
+    <t>T375</t>
+  </si>
+  <si>
+    <t>T364</t>
+  </si>
+  <si>
+    <t>T319</t>
+  </si>
+  <si>
+    <t>T368</t>
+  </si>
+  <si>
+    <t>T327</t>
+  </si>
+  <si>
+    <t>T365</t>
+  </si>
+  <si>
+    <t>T3456</t>
+  </si>
+  <si>
+    <t>Thorax in 2 pieces- but seems ok!</t>
+  </si>
+  <si>
+    <t>Part of thorax missing</t>
+  </si>
+  <si>
+    <t>T470</t>
+  </si>
+  <si>
+    <t>T312</t>
+  </si>
+  <si>
+    <t>T325</t>
+  </si>
+  <si>
+    <t>T357</t>
+  </si>
+  <si>
+    <t>T222</t>
+  </si>
+  <si>
+    <t>T224</t>
+  </si>
+  <si>
+    <t>T232</t>
+  </si>
+  <si>
+    <t>T246</t>
+  </si>
+  <si>
+    <t>T260</t>
+  </si>
+  <si>
+    <t>T142</t>
+  </si>
+  <si>
+    <t>T155</t>
+  </si>
+  <si>
+    <t>T157</t>
+  </si>
+  <si>
+    <t>T163</t>
+  </si>
+  <si>
+    <t>T166</t>
+  </si>
+  <si>
+    <t>Thorax in 2 pieces</t>
+  </si>
+  <si>
+    <t>% lost over last measure</t>
+  </si>
+  <si>
+    <t>Burned/ cuticle missing, pieces falling off in KOH</t>
+  </si>
+  <si>
+    <t>full_mass</t>
+  </si>
+  <si>
+    <t>before_thorax</t>
+  </si>
+  <si>
+    <t>after_thorax</t>
+  </si>
+  <si>
+    <t>muscle_mass</t>
+  </si>
+  <si>
+    <t>muscle_percent</t>
+  </si>
+  <si>
+    <t>exclude</t>
   </si>
 </sst>
 </file>
@@ -443,10 +538,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2270,7 +2364,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Preliminary!$B$64:$I$64</c:f>
+              <c:f>Preliminary!$B$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2303,7 +2397,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Preliminary!$B$65:$I$65</c:f>
+              <c:f>Preliminary!$B$67:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4274,13 +4368,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>359833</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>783167</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>46567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4606,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C521A7B3-FD26-6648-8CEF-CFA01B73BA57}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5054,7 +5148,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -5136,7 +5230,7 @@
         <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <v>84</v>
@@ -5647,14 +5741,14 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <f>AVERAGE(D41:D50)</f>
         <v>0.39376216094639976</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="E51:N51" si="9">AVERAGE(F41:F50)</f>
+        <f t="shared" ref="F51:N51" si="9">AVERAGE(F41:F50)</f>
         <v>0.60772862184064413</v>
       </c>
       <c r="H51">
@@ -5674,241 +5768,288 @@
         <v>0.7302950387178162</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H52">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53" t="s">
+        <v>144</v>
+      </c>
+      <c r="N53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <f>(H41-F41)*100</f>
         <v>0.60459492140266802</v>
       </c>
-      <c r="J52">
+      <c r="J54">
         <f>(J41-H41)*100</f>
         <v>2.6602176541717149</v>
       </c>
-      <c r="L52">
+      <c r="L54">
         <f>(L41-J41)*100</f>
         <v>0.48367593712211887</v>
       </c>
-      <c r="N52">
+      <c r="N54">
         <f>(N41-L41)*100</f>
         <v>-1.2091898428053249</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H53" s="1">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
         <f>(H42-F42)*100</f>
         <v>10.950080515297911</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J55" s="1">
         <f>(J42-H42)*100</f>
         <v>6.7632850241545857</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L55">
         <f>(L42-J42)*100</f>
         <v>3.8647342995169143</v>
       </c>
-      <c r="N53">
-        <f t="shared" ref="N53:N61" si="10">(N42-L42)*100</f>
+      <c r="N55">
+        <f t="shared" ref="N55:N63" si="10">(N42-L42)*100</f>
         <v>-3.3816425120772986</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H54" s="1">
-        <f t="shared" ref="H54:H61" si="11">(H43-F43)*100</f>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" ref="H56:H63" si="11">(H43-F43)*100</f>
         <v>9.6921322690992024</v>
       </c>
-      <c r="J54" s="1">
-        <f t="shared" ref="J54:J61" si="12">(J43-H43)*100</f>
+      <c r="J56" s="1">
+        <f t="shared" ref="J56:J63" si="12">(J43-H43)*100</f>
         <v>6.4994298745724048</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L56">
         <f>(L43-J43)*100</f>
         <v>3.4207525655644222</v>
       </c>
-      <c r="N54">
+      <c r="N56">
         <f t="shared" si="10"/>
         <v>0.45610034207524963</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H55">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="11"/>
         <v>1.9538188277087087</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J57">
         <f t="shared" si="12"/>
         <v>3.1971580817051537</v>
       </c>
-      <c r="L55">
-        <f t="shared" ref="L55:L61" si="13">(L44-J44)*100</f>
+      <c r="L57">
+        <f t="shared" ref="L57:L63" si="13">(L44-J44)*100</f>
         <v>-0.53285968028419228</v>
       </c>
-      <c r="N55">
+      <c r="N57">
         <f t="shared" si="10"/>
         <v>0.71047957371225268</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H56" s="1">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
         <f t="shared" si="11"/>
         <v>6.7901234567901314</v>
       </c>
-      <c r="J56">
+      <c r="J58">
         <f t="shared" si="12"/>
         <v>2.0282186948853531</v>
       </c>
-      <c r="L56">
+      <c r="L58">
         <f t="shared" si="13"/>
         <v>1.6754850088183559</v>
       </c>
-      <c r="N56">
+      <c r="N58">
         <f t="shared" si="10"/>
         <v>0.52910052910052352</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H57" s="1">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="H59" s="1">
         <f t="shared" si="11"/>
         <v>4.6012269938650263</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="12"/>
         <v>5.5214723926380387</v>
       </c>
-      <c r="L57">
+      <c r="L59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N57">
+      <c r="N59">
         <f t="shared" si="10"/>
         <v>5.0102249488752637</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H58" s="1">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="H60" s="1">
         <f t="shared" si="11"/>
         <v>7.8703703703703614</v>
       </c>
-      <c r="J58">
+      <c r="J60">
         <f t="shared" si="12"/>
         <v>2.1296296296296258</v>
       </c>
-      <c r="L58">
+      <c r="L60">
         <f t="shared" si="13"/>
         <v>1.4814814814814836</v>
       </c>
-      <c r="N58">
+      <c r="N60">
         <f t="shared" si="10"/>
         <v>0.92592592592593004</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H59" s="1">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1">
         <f t="shared" si="11"/>
         <v>9.2615769712140139</v>
       </c>
-      <c r="J59">
+      <c r="J61">
         <f t="shared" si="12"/>
         <v>1.0012515644555631</v>
       </c>
-      <c r="L59">
+      <c r="L61">
         <f t="shared" si="13"/>
         <v>4.5056320400500667</v>
       </c>
-      <c r="N59">
+      <c r="N61">
         <f t="shared" si="10"/>
         <v>2.5031289111389299</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H60" s="1">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="H62" s="1">
         <f t="shared" si="11"/>
         <v>7.1535022354694444</v>
       </c>
-      <c r="J60">
+      <c r="J62">
         <f t="shared" si="12"/>
         <v>0.8941877794336861</v>
       </c>
-      <c r="L60">
+      <c r="L62">
         <f t="shared" si="13"/>
         <v>2.2354694485842042</v>
       </c>
-      <c r="N60">
+      <c r="N62">
         <f t="shared" si="10"/>
         <v>1.3412816691505181</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H61" s="1">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1">
         <f t="shared" si="11"/>
         <v>4.487179487179505</v>
       </c>
-      <c r="J61">
+      <c r="J63">
         <f t="shared" si="12"/>
         <v>1.9230769230769162</v>
       </c>
-      <c r="L61">
+      <c r="L63">
         <f t="shared" si="13"/>
         <v>0.85470085470085166</v>
       </c>
-      <c r="N61">
+      <c r="N63">
         <f t="shared" si="10"/>
         <v>1.7094017094017144</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66">
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>12</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <v>24</v>
       </c>
-      <c r="E64">
+      <c r="E66">
         <v>36</v>
       </c>
-      <c r="F64">
+      <c r="F66">
         <v>48</v>
       </c>
-      <c r="G64">
+      <c r="G66">
         <v>60</v>
       </c>
-      <c r="H64">
+      <c r="H66">
         <v>72</v>
       </c>
-      <c r="I64">
+      <c r="I66">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67">
         <v>0</v>
       </c>
-      <c r="C65">
-        <f>AVERAGE(B65,D65)</f>
+      <c r="C67">
+        <f>AVERAGE(B67,D67)</f>
         <v>19.688108047319989</v>
       </c>
-      <c r="D65">
+      <c r="D67">
         <f>D51*100</f>
         <v>39.376216094639979</v>
       </c>
-      <c r="E65">
+      <c r="E67">
         <f>F51*100</f>
         <v>60.772862184064415</v>
       </c>
-      <c r="F65">
+      <c r="F67">
         <f>H51*100</f>
         <v>67.109322788904109</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <f>J51*100</f>
         <v>70.371115550776395</v>
       </c>
-      <c r="H65">
+      <c r="H67">
         <f>L51*100</f>
         <v>72.170022746331824</v>
       </c>
-      <c r="I65">
+      <c r="I67">
         <f>N51*100</f>
         <v>73.029503871781614</v>
       </c>
@@ -5921,2210 +6062,3047 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B14848-C2D6-2046-A5B7-681F8ED9AF97}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="35.83203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="35.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
+      <c r="I1" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.7097</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>D2-E2</f>
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>F2/C2</f>
         <v>9.6801465407918841E-2</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>112</v>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.74239999999999995</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.84E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>D3-E3</f>
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>F3/C3</f>
         <v>0.10412176724137931</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>112</v>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.74170000000000003</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.83E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>D4-E4</f>
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>F4/C4</f>
         <v>9.9770796818120525E-2</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>112</v>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.50839999999999996</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>D5-E5</f>
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f>F5/C5</f>
         <v>0.15420928402832415</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>112</v>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.47160000000000002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f>D6-E6</f>
         <v>5.7899999999999993E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f>F6/C6</f>
         <v>0.12277353689567429</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>112</v>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.71389999999999998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f>D7-E7</f>
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f>F7/C7</f>
         <v>0.10701778960638744</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>112</v>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.4304</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f>D8-E8</f>
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f>F8/C8</f>
         <v>0.16356877323420074</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>112</v>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.4506</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1.38E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f>D9-E9</f>
         <v>6.3E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f>F9/C9</f>
         <v>0.13981358189081225</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>112</v>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.86519999999999997</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f>D10-E10</f>
         <v>8.4999999999999992E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f>F10/C10</f>
         <v>9.8243180767452601E-2</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>89</v>
+      <c r="H10" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.53739999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f>D11-E11</f>
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f>F11/C11</f>
         <v>0.15872720506140678</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.4536</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1.15E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>D12-E12</f>
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>F12/C12</f>
         <v>0.15388007054673722</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.61609999999999998</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.1033</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f>D13-E13</f>
         <v>8.7000000000000008E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f>F13/C13</f>
         <v>0.14121084239571499</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>35</v>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.74939999999999996</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.1118</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f>D14-E14</f>
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f>F14/C14</f>
         <v>0.12289831865492395</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.61229999999999996</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f>D15-E15</f>
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f>F15/C15</f>
         <v>0.12706189776253471</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.50190000000000001</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1.29E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f>D16-E16</f>
         <v>6.5300000000000011E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f>F16/C16</f>
         <v>0.13010559872484562</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.1163</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17-E17</f>
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="2">
+        <f>F17/C17</f>
+        <v>0.12152144853566656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1351</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D18-E18</f>
+        <v>0.1178</v>
+      </c>
+      <c r="G18" s="2">
+        <f>F18/C18</f>
+        <v>0.17561121049493145</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f>D19-E19</f>
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <f>F19/C19</f>
+        <v>0.12839619396996449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5081</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D20-E20</f>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <f>F20/C20</f>
+        <v>0.10332611690612084</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21-E21</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <f>F21/C21</f>
+        <v>0.14800405953991883</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22-E22</f>
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <f>F22/C22</f>
+        <v>0.1213640922768305</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f>D23-E23</f>
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <f>F23/C23</f>
+        <v>0.12773359840954274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24-E24</f>
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <f>F24/C24</f>
+        <v>0.12133586116377425</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25-E25</f>
+        <v>6.5599999999999992E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <f>F25/C25</f>
+        <v>0.10086100861008609</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9.01E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.24E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D26-E26</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <f>F26/C26</f>
+        <v>0.14890762744346492</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="F27" s="2">
+        <f>D27-E27</f>
+        <v>5.8300000000000005E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <f>F27/C27</f>
+        <v>0.16171983356449376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.56120000000000003</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.34E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <f>D28-E28</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <f>F28/C28</f>
+        <v>0.14754098360655737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.5081</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <f>D29-E29</f>
+        <v>6.6599999999999993E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <f>F29/C29</f>
+        <v>0.13107655973233615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <f>D30-E30</f>
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <f>F30/C30</f>
+        <v>0.1292059219380888</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <f>D31-E31</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <f>F31/C31</f>
+        <v>0.11980976769709166</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <f>D32-E32</f>
+        <v>6.8999999999999992E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <f>F32/C32</f>
+        <v>0.11234125691957017</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <f>D33-E33</f>
+        <v>7.7000000000000013E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <f>F33/C33</f>
+        <v>0.11213047910295619</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.1149</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <f>D34-E34</f>
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <f>F34/C34</f>
+        <v>0.11905345757724375</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <f>D35-E35</f>
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <f>F35/C35</f>
+        <v>0.14277978339350181</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <f>D36-E36</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <f>F36/C36</f>
+        <v>0.14154494804999246</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.5978</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.1017</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.34E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <f>D37-E37</f>
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <f>F37/C37</f>
+        <v>0.14770826363332218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.1173</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <f>D38-E38</f>
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="G38" s="2">
+        <f>F38/C38</f>
+        <v>0.12596599690880989</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <f>D39-E39</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <f>F39/C39</f>
+        <v>0.1359574063510173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <f>D40-E40</f>
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="G40" s="2">
+        <f>F40/C40</f>
+        <v>0.15850659512631346</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <f>D41-E41</f>
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <f>F41/C41</f>
+        <v>0.14778632300976927</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.37E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <f>D42-E42</f>
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <f>F42/C42</f>
+        <v>0.12571554381329811</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.59189999999999998</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <f>D43-E43</f>
+        <v>7.1899999999999992E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <f>F43/C43</f>
+        <v>0.12147322182801149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <f>D44-E44</f>
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <f>F44/C44</f>
+        <v>0.12352863377860072</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="F45" s="2">
+        <f>D45-E45</f>
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="G45" s="2">
+        <f>F45/C45</f>
+        <v>0.16720321931589535</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <f>D46-E46</f>
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <f>F46/C46</f>
+        <v>0.16470588235294117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F47" s="2">
+        <f>D47-E47</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <f>F47/C47</f>
+        <v>9.6223411951960644E-2</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <f>D48-E48</f>
+        <v>0.10110000000000001</v>
+      </c>
+      <c r="G48" s="2">
+        <f>F48/C48</f>
+        <v>0.12461481572784421</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.4899</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F49" s="2">
+        <f>D49-E49</f>
+        <v>6.93E-2</v>
+      </c>
+      <c r="G49" s="2">
+        <f>F49/C49</f>
+        <v>0.14145744029393753</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.23E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <f>D50-E50</f>
+        <v>6.989999999999999E-2</v>
+      </c>
+      <c r="G50" s="2">
+        <f>F50/C50</f>
+        <v>0.15302101576182134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.1028</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <f>D51-E51</f>
+        <v>8.660000000000001E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <f>F51/C51</f>
+        <v>0.13428438517599628</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="F52" s="2">
+        <f>D52-E52</f>
+        <v>6.93E-2</v>
+      </c>
+      <c r="G52" s="2">
+        <f>F52/C52</f>
+        <v>0.13561643835616438</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <f>D53-E53</f>
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="G53" s="2">
+        <f>F53/C53</f>
+        <v>0.12904800650935719</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.41E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <f>D54-E54</f>
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="G54" s="2">
+        <f>F54/C54</f>
+        <v>0.14812112367748995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8.6E-3</v>
+      </c>
+      <c r="F55" s="2">
+        <f>D55-E55</f>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="G55" s="2">
+        <f>F55/C55</f>
+        <v>0.15632530120481927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F56" s="2">
+        <f>D56-E56</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G56" s="2">
+        <f>F56/C56</f>
+        <v>0.1159702549575071</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.44940000000000002</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F57" s="2">
+        <f>D57-E57</f>
+        <v>6.0500000000000005E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <f>F57/C57</f>
+        <v>0.13462394303515798</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.14E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <f>D58-E58</f>
+        <v>6.9399999999999989E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <f>F58/C58</f>
+        <v>0.12457368515526833</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="D59" s="2">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="F59" s="2">
+        <f>D59-E59</f>
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="G59" s="2">
+        <f>F59/C59</f>
+        <v>0.12890120036934441</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.5403</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <f>D60-E60</f>
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="G60" s="2">
+        <f>F60/C60</f>
+        <v>0.15565426614843605</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="D61" s="2">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F61" s="2">
+        <f>D61-E61</f>
+        <v>6.4700000000000008E-2</v>
+      </c>
+      <c r="G61" s="2">
+        <f>F61/C61</f>
+        <v>0.12746256895193064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="2">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="F62" s="2">
+        <f>D62-E62</f>
+        <v>4.99E-2</v>
+      </c>
+      <c r="G62" s="2">
+        <f>F62/C62</f>
+        <v>0.14612005856515373</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <f>D63-E63</f>
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="G63" s="2">
+        <f>F63/C63</f>
+        <v>0.14716720405343162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.67079999999999995</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.1351</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <f>D17-E17</f>
-        <v>0.1178</v>
-      </c>
-      <c r="G17" s="3">
-        <f>F17/C17</f>
-        <v>0.17561121049493145</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.3427</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F64" s="2">
+        <f>D64-E64</f>
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="G64" s="2">
+        <f>F64/C64</f>
+        <v>0.1529034140647797</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="F65" s="2">
+        <f>D65-E65</f>
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="G65" s="2">
+        <f>F65/C65</f>
+        <v>0.13384012900253398</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F66" s="2">
+        <f>D66-E66</f>
+        <v>3.9599999999999996E-2</v>
+      </c>
+      <c r="G66" s="2">
+        <f>F66/C66</f>
+        <v>0.15695600475624255</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7.6E-3</v>
+      </c>
+      <c r="F67" s="2">
+        <f>D67-E67</f>
+        <v>4.8799999999999996E-2</v>
+      </c>
+      <c r="G67" s="2">
+        <f>F67/C67</f>
+        <v>0.1096629213483146</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="F68" s="2">
+        <f>D68-E68</f>
+        <v>5.0300000000000004E-2</v>
+      </c>
+      <c r="G68" s="2">
+        <f>F68/C68</f>
+        <v>0.14707602339181286</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="F69" s="2">
+        <f>D69-E69</f>
+        <v>5.9800000000000006E-2</v>
+      </c>
+      <c r="G69" s="2">
+        <f>F69/C69</f>
+        <v>0.13842592592592595</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F70" s="2">
+        <f>D70-E70</f>
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="G70" s="2">
+        <f>F70/C70</f>
+        <v>0.14598041448417218</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <f>D71-E71</f>
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="G71" s="2">
+        <f>F71/C71</f>
+        <v>0.11803852889667252</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="D72" s="2">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.24E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <f>D72-E72</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G72" s="2">
+        <f>F72/C72</f>
+        <v>0.13798188329471245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>7.6E-3</v>
+      </c>
+      <c r="F73" s="2">
+        <f>D73-E73</f>
+        <v>4.6799999999999994E-2</v>
+      </c>
+      <c r="G73" s="2">
+        <f>F73/C73</f>
+        <v>0.15249266862170086</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="D74" s="2">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F74" s="2">
+        <f>D74-E74</f>
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="G74" s="2">
+        <f>F74/C74</f>
+        <v>0.13112195121951223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="D75" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F75" s="2">
+        <f>D75-E75</f>
+        <v>5.7900000000000007E-2</v>
+      </c>
+      <c r="G75" s="2">
+        <f>F75/C75</f>
+        <v>0.14275147928994084</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <f>D76-E76</f>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <f>F76/C76</f>
+        <v>0.13289422704378148</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F77" s="2">
+        <f>D77-E77</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <f>F77/C77</f>
+        <v>0.15668044077134985</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <f>D78-E78</f>
+        <v>6.6200000000000009E-2</v>
+      </c>
+      <c r="G78" s="2">
+        <f>F78/C78</f>
+        <v>0.14088103851883382</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.4864</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="F79" s="2">
+        <f>D79-E79</f>
+        <v>6.9100000000000009E-2</v>
+      </c>
+      <c r="G79" s="2">
+        <f>F79/C79</f>
+        <v>0.14206414473684212</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <f>D80-E80</f>
+        <v>6.770000000000001E-2</v>
+      </c>
+      <c r="G80" s="2">
+        <f>F80/C80</f>
+        <v>0.15467214987434319</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="D81" s="2">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F81" s="2">
+        <f>D81-E81</f>
+        <v>4.6799999999999994E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <f>F81/C81</f>
+        <v>0.17092768444119794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="D82" s="2">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F82" s="2">
+        <f>D82-E82</f>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G82" s="2">
+        <f>F82/C82</f>
+        <v>0.14616588419405321</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.37E-2</v>
+      </c>
+      <c r="F83" s="2">
+        <f>D83-E83</f>
+        <v>6.7099999999999993E-2</v>
+      </c>
+      <c r="G83" s="2">
+        <f>F83/C83</f>
+        <v>0.1418304798139928</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5.67E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="F84" s="2">
+        <f>D84-E84</f>
+        <v>4.8799999999999996E-2</v>
+      </c>
+      <c r="G84" s="2">
+        <f>F84/C84</f>
+        <v>0.1515527950310559</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="D85" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F85" s="2">
+        <f>D85-E85</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="G85" s="2">
+        <f>F85/C85</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F86" s="2">
+        <f>D86-E86</f>
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="G86" s="2">
+        <f>F86/C86</f>
+        <v>0.16880180859080632</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="D87" s="2">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.41E-2</v>
+      </c>
+      <c r="F87" s="2">
+        <f>D87-E87</f>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="G87" s="2">
+        <f>F87/C87</f>
+        <v>0.14261460101867571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="D88" s="2">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F88" s="2">
+        <f>D88-E88</f>
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="G88" s="2">
+        <f>F88/C88</f>
+        <v>0.12871674491392801</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F89" s="2">
+        <f>D89-E89</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="G89" s="2">
+        <f>F89/C89</f>
+        <v>0.11484823625922885</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="2">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="D90" s="2">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F90" s="2">
+        <f>D90-E90</f>
+        <v>5.9800000000000006E-2</v>
+      </c>
+      <c r="G90" s="2">
+        <f>F90/C90</f>
+        <v>0.16049382716049385</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="D91" s="2">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="F91" s="2">
+        <f>D91-E91</f>
+        <v>5.7800000000000004E-2</v>
+      </c>
+      <c r="G91" s="2">
+        <f>F91/C91</f>
+        <v>0.15874759681406209</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="2">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F92" s="2">
+        <f>D92-E92</f>
+        <v>5.8699999999999995E-2</v>
+      </c>
+      <c r="G92" s="2">
+        <f>F92/C92</f>
+        <v>0.14141170802216332</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F93" s="2">
+        <f>D93-E93</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="G93" s="2">
+        <f>F93/C93</f>
+        <v>0.16108037748128864</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>8.6E-3</v>
+      </c>
+      <c r="F94" s="2">
+        <f>D94-E94</f>
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G94" s="2">
+        <f>F94/C94</f>
+        <v>0.17388059701492536</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F95" s="2">
+        <f>D95-E95</f>
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="G95" s="2">
+        <f>F95/C95</f>
+        <v>0.17854571634269256</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="B96" s="2">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="D96" s="2">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.54E-2</v>
+      </c>
+      <c r="F96" s="2">
+        <f>D96-E96</f>
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <f>F96/C96</f>
+        <v>0.15887850467289719</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E97" s="2">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F97" s="2">
+        <f>D97-E97</f>
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="G97" s="2">
+        <f>F97/C97</f>
+        <v>0.12534477474716518</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="D98" s="2">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1.38E-2</v>
+      </c>
+      <c r="F98" s="2">
+        <f>D98-E98</f>
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="G98" s="2">
+        <f>F98/C98</f>
+        <v>0.15583031336602002</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="2">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E99" s="2">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="F99" s="2">
+        <f>D99-E99</f>
+        <v>5.7600000000000005E-2</v>
+      </c>
+      <c r="G99" s="2">
+        <f>F99/C99</f>
+        <v>0.11180124223602486</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="D100" s="2">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="E100" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F100" s="2">
+        <f>D100-E100</f>
+        <v>5.8699999999999995E-2</v>
+      </c>
+      <c r="G100" s="2">
+        <f>F100/C100</f>
+        <v>0.15990193407790793</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="D101" s="2">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F101" s="2">
+        <f>D101-E101</f>
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="G101" s="2">
+        <f>F101/C101</f>
+        <v>0.15216881594372803</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="2">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.47660000000000002</v>
+      </c>
+      <c r="D102" s="2">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="F102" s="2">
+        <f>D102-E102</f>
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="G102" s="2">
+        <f>F102/C102</f>
+        <v>0.15673520772135963</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="D103" s="2">
+        <v>6.93E-2</v>
+      </c>
+      <c r="E103" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="F103" s="2">
+        <f>D103-E103</f>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="G103" s="2">
+        <f>F103/C103</f>
+        <v>0.15579994763026969</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.87229999999999996</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.13170000000000001</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <f>D18-E18</f>
-        <v>0.11200000000000002</v>
-      </c>
-      <c r="G18" s="3">
-        <f>F18/C18</f>
-        <v>0.12839619396996449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="C104" s="2">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="D104" s="2">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F104" s="2">
+        <f>D104-E104</f>
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="G104" s="2">
+        <f>F104/C104</f>
+        <v>0.15535512965050732</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="2">
+        <v>6</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="D105" s="2">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="E105" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F105" s="2">
+        <f>D105-E105</f>
+        <v>5.45E-2</v>
+      </c>
+      <c r="G105" s="2">
+        <f>F105/C105</f>
+        <v>0.16836577077540935</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="D106" s="2">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="F106" s="2">
+        <f>D106-E106</f>
+        <v>8.1599999999999992E-2</v>
+      </c>
+      <c r="G106" s="2">
+        <f>F106/C106</f>
+        <v>0.16238805970149253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D107" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="E107" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F107" s="2">
+        <f>D107-E107</f>
+        <v>5.7700000000000008E-2</v>
+      </c>
+      <c r="G107" s="2">
+        <f>F107/C107</f>
+        <v>0.16822157434402332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.5081</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="F19" s="3">
-        <f>D19-E19</f>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="G19" s="3">
-        <f>F19/C19</f>
-        <v>0.10332611690612084</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.65039999999999998</v>
-      </c>
-      <c r="D20" s="3">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="F20" s="3">
-        <f>D20-E20</f>
-        <v>6.5599999999999992E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <f>F20/C20</f>
-        <v>0.10086100861008609</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C108" s="2">
+        <v>0.24590000000000001</v>
+      </c>
+      <c r="D108" s="2">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="E108" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F108" s="2">
+        <f>D108-E108</f>
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="G108" s="2">
+        <f>F108/C108</f>
+        <v>0.20211468076453842</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.52180000000000004</v>
-      </c>
-      <c r="D21" s="3">
-        <v>9.01E-2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.24E-2</v>
-      </c>
-      <c r="F21" s="3">
-        <f>D21-E21</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <f>F21/C21</f>
-        <v>0.14890762744346492</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.36049999999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="F22" s="3">
-        <f>D22-E22</f>
-        <v>5.8300000000000005E-2</v>
-      </c>
-      <c r="G22" s="3">
-        <f>F22/C22</f>
-        <v>0.16171983356449376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.56120000000000003</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.34E-2</v>
-      </c>
-      <c r="F23" s="3">
-        <f>D23-E23</f>
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="G23" s="3">
-        <f>F23/C23</f>
-        <v>0.14754098360655737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.5081</v>
-      </c>
-      <c r="D24" s="3">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.12E-2</v>
-      </c>
-      <c r="F24" s="3">
-        <f>D24-E24</f>
-        <v>6.6599999999999993E-2</v>
-      </c>
-      <c r="G24" s="3">
-        <f>F24/C24</f>
-        <v>0.13107655973233615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9.4799999999999995E-2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F25" s="3">
-        <f>D25-E25</f>
-        <v>7.6799999999999993E-2</v>
-      </c>
-      <c r="G25" s="3">
-        <f>F25/C25</f>
-        <v>0.1292059219380888</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="D26" s="3">
-        <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="F26" s="3">
-        <f>D26-E26</f>
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="G26" s="3">
-        <f>F26/C26</f>
-        <v>0.11980976769709166</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.61419999999999997</v>
-      </c>
-      <c r="D27" s="3">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="F27" s="3">
-        <f>D27-E27</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <f>F27/C27</f>
-        <v>0.11234125691957017</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.68669999999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="F28" s="3">
-        <f>D28-E28</f>
-        <v>7.7000000000000013E-2</v>
-      </c>
-      <c r="G28" s="3">
-        <f>F28/C28</f>
-        <v>0.11213047910295619</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.81559999999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.1149</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1.78E-2</v>
-      </c>
-      <c r="F29" s="3">
-        <f>D29-E29</f>
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="G29" s="3">
-        <f>F29/C29</f>
-        <v>0.11905345757724375</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D30" s="3">
-        <v>9.35E-2</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F30" s="3">
-        <f>D30-E30</f>
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="G30" s="3">
-        <f>F30/C30</f>
-        <v>0.14277978339350181</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.66410000000000002</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.112</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F31" s="3">
-        <f>D31-E31</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="G31" s="3">
-        <f>F31/C31</f>
-        <v>0.14154494804999246</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.77639999999999998</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.1173</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.95E-2</v>
-      </c>
-      <c r="F32" s="3">
-        <f>D32-E32</f>
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="G32" s="3">
-        <f>F32/C32</f>
-        <v>0.12596599690880989</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="D33" s="3">
-        <v>8.3900000000000002E-2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <f>D33-E33</f>
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="G33" s="3">
-        <f>F33/C33</f>
-        <v>0.15850659512631346</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.48110000000000003</v>
-      </c>
-      <c r="D34" s="3">
-        <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1.04E-2</v>
-      </c>
-      <c r="F34" s="3">
-        <f>D34-E34</f>
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="G34" s="3">
-        <f>F34/C34</f>
-        <v>0.14778632300976927</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.45419999999999999</v>
-      </c>
-      <c r="D35" s="3">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.37E-2</v>
-      </c>
-      <c r="F35" s="3">
-        <f>D35-E35</f>
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="G35" s="3">
-        <f>F35/C35</f>
-        <v>0.12571554381329811</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.59189999999999998</v>
-      </c>
-      <c r="D36" s="3">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.12E-2</v>
-      </c>
-      <c r="F36" s="3">
-        <f>D36-E36</f>
-        <v>7.1899999999999992E-2</v>
-      </c>
-      <c r="G36" s="3">
-        <f>F36/C36</f>
-        <v>0.12147322182801149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.497</v>
-      </c>
-      <c r="D37" s="3">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1.61E-2</v>
-      </c>
-      <c r="F37" s="3">
-        <f>D37-E37</f>
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="G37" s="3">
-        <f>F37/C37</f>
-        <v>0.16720321931589535</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="D38" s="3">
-        <v>9.2799999999999994E-2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="F38" s="3">
-        <f>D38-E38</f>
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="G38" s="3">
-        <f>F38/C38</f>
-        <v>0.16470588235294117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="D39" s="3">
-        <v>7.5800000000000006E-2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F39" s="3">
-        <f>D39-E39</f>
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="G39" s="3">
-        <f>F39/C39</f>
-        <v>9.6223411951960644E-2</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.45679999999999998</v>
-      </c>
-      <c r="D40" s="3">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1.23E-2</v>
-      </c>
-      <c r="F40" s="3">
-        <f>D40-E40</f>
-        <v>6.989999999999999E-2</v>
-      </c>
-      <c r="G40" s="3">
-        <f>F40/C40</f>
-        <v>0.15302101576182134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="3">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.1028</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="F41" s="3">
-        <f>D41-E41</f>
-        <v>8.660000000000001E-2</v>
-      </c>
-      <c r="G41" s="3">
-        <f>F41/C41</f>
-        <v>0.13428438517599628</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="3">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="F42" s="3">
-        <f>D42-E42</f>
-        <v>6.93E-2</v>
-      </c>
-      <c r="G42" s="3">
-        <f>F42/C42</f>
-        <v>0.13561643835616438</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="3">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="D43" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="F43" s="3">
-        <f>D43-E43</f>
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="G43" s="3">
-        <f>F43/C43</f>
-        <v>0.12904800650935719</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="3">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="D44" s="3">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1.41E-2</v>
-      </c>
-      <c r="F44" s="3">
-        <f>D44-E44</f>
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="G44" s="3">
-        <f>F44/C44</f>
-        <v>0.14812112367748995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.56479999999999997</v>
-      </c>
-      <c r="D45" s="3">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1.01E-2</v>
-      </c>
-      <c r="F45" s="3">
-        <f>D45-E45</f>
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="G45" s="3">
-        <f>F45/C45</f>
-        <v>0.1159702549575071</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.55710000000000004</v>
-      </c>
-      <c r="D46" s="3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1.14E-2</v>
-      </c>
-      <c r="F46" s="3">
-        <f>D46-E46</f>
-        <v>6.9399999999999989E-2</v>
-      </c>
-      <c r="G46" s="3">
-        <f>F46/C46</f>
-        <v>0.12457368515526833</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="3">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.54149999999999998</v>
-      </c>
-      <c r="D47" s="3">
-        <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="F47" s="3">
-        <f>D47-E47</f>
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="G47" s="3">
-        <f>F47/C47</f>
-        <v>0.12890120036934441</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.3427</v>
-      </c>
-      <c r="D48" s="3">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="E48" s="3">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F48" s="3">
-        <f>D48-E48</f>
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="G48" s="3">
-        <f>F48/C48</f>
-        <v>0.1529034140647797</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="F49" s="3">
-        <f>D49-E49</f>
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="G49" s="3">
-        <f>F49/C49</f>
-        <v>0.13384012900253398</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3">
-        <v>4</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.25230000000000002</v>
-      </c>
-      <c r="D50" s="3">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="E50" s="3">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="F50" s="3">
-        <f>D50-E50</f>
-        <v>3.9599999999999996E-2</v>
-      </c>
-      <c r="G50" s="3">
-        <f>F50/C50</f>
-        <v>0.15695600475624255</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D51" s="3">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>7.6E-3</v>
-      </c>
-      <c r="F51" s="3">
-        <f>D51-E51</f>
-        <v>4.8799999999999996E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <f>F51/C51</f>
-        <v>0.1096629213483146</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="3">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="F52" s="3">
-        <f>D52-E52</f>
-        <v>5.0300000000000004E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <f>F52/C52</f>
-        <v>0.14707602339181286</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3">
-        <v>2</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1.26E-2</v>
-      </c>
-      <c r="F53" s="3">
-        <f>D53-E53</f>
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <f>F53/C53</f>
-        <v>0.11803852889667252</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="3">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.47470000000000001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1.24E-2</v>
-      </c>
-      <c r="F54" s="3">
-        <f>D54-E54</f>
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <f>F54/C54</f>
-        <v>0.13798188329471245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="3">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.46989999999999998</v>
-      </c>
-      <c r="D55" s="3">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1.15E-2</v>
-      </c>
-      <c r="F55" s="3">
-        <f>D55-E55</f>
-        <v>6.6200000000000009E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <f>F55/C55</f>
-        <v>0.14088103851883382</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="3">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.43769999999999998</v>
-      </c>
-      <c r="D56" s="3">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1.15E-2</v>
-      </c>
-      <c r="F56" s="3">
-        <f>D56-E56</f>
-        <v>6.770000000000001E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <f>F56/C56</f>
-        <v>0.15467214987434319</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="3">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.27379999999999999</v>
-      </c>
-      <c r="D57" s="3">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="F57" s="3">
-        <f>D57-E57</f>
-        <v>4.6799999999999994E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <f>F57/C57</f>
-        <v>0.17092768444119794</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="3">
-        <v>2</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.31950000000000001</v>
-      </c>
-      <c r="D58" s="3">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="E58" s="3">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="F58" s="3">
-        <f>D58-E58</f>
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <f>F58/C58</f>
-        <v>0.14616588419405321</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="3">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.47310000000000002</v>
-      </c>
-      <c r="D59" s="3">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1.37E-2</v>
-      </c>
-      <c r="F59" s="3">
-        <f>D59-E59</f>
-        <v>6.7099999999999993E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <f>F59/C59</f>
-        <v>0.1418304798139928</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D60" s="3">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="F60" s="3">
-        <f>D60-E60</f>
-        <v>4.8799999999999996E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <f>F60/C60</f>
-        <v>0.1515527950310559</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="3">
-        <v>2</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.27360000000000001</v>
-      </c>
-      <c r="D61" s="3">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="E61" s="3">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="F61" s="3">
-        <f>D61-E61</f>
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <f>F61/C61</f>
-        <v>0.1736111111111111</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="3">
-        <v>2</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.39810000000000001</v>
-      </c>
-      <c r="D62" s="3">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="E62" s="3">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="F62" s="3">
-        <f>D62-E62</f>
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <f>F62/C62</f>
-        <v>0.16880180859080632</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="3">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="D63" s="3">
-        <v>8.9700000000000002E-2</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1.41E-2</v>
-      </c>
-      <c r="F63" s="3">
-        <f>D63-E63</f>
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <f>F63/C63</f>
-        <v>0.14261460101867571</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="3">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.51119999999999999</v>
-      </c>
-      <c r="D64" s="3">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1.01E-2</v>
-      </c>
-      <c r="F64" s="3">
-        <f>D64-E64</f>
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <f>F64/C64</f>
-        <v>0.12871674491392801</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="3">
-        <v>2</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.60950000000000004</v>
-      </c>
-      <c r="D65" s="3">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="E65" s="3">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="F65" s="3">
-        <f>D65-E65</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <f>F65/C65</f>
-        <v>0.11484823625922885</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="3">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.37259999999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1.01E-2</v>
-      </c>
-      <c r="F66" s="3">
-        <f>D66-E66</f>
-        <v>5.9800000000000006E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <f>F66/C66</f>
-        <v>0.16049382716049385</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="3">
-        <v>2</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.36409999999999998</v>
-      </c>
-      <c r="D67" s="3">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="F67" s="3">
-        <f>D67-E67</f>
-        <v>5.7800000000000004E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <f>F67/C67</f>
-        <v>0.15874759681406209</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="3">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="D68" s="3">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="E68" s="3">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="F68" s="3">
-        <f>D68-E68</f>
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <f>F68/C68</f>
-        <v>0.16108037748128864</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="3">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="D69" s="3">
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>8.6E-3</v>
-      </c>
-      <c r="F69" s="3">
-        <f>D69-E69</f>
-        <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <f>F69/C69</f>
-        <v>0.17388059701492536</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="3">
-        <v>2</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="F70" s="3">
-        <f>D70-E70</f>
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <f>F70/C70</f>
-        <v>0.17854571634269256</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="3">
-        <v>2</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.32629999999999998</v>
-      </c>
-      <c r="D71" s="3">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F71" s="3">
-        <f>D71-E71</f>
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <f>F71/C71</f>
-        <v>0.12534477474716518</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.46910000000000002</v>
-      </c>
-      <c r="D72" s="3">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1.38E-2</v>
-      </c>
-      <c r="F72" s="3">
-        <f>D72-E72</f>
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <f>F72/C72</f>
-        <v>0.15583031336602002</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="3">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="D73" s="3">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E73" s="3">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="F73" s="3">
-        <f>D73-E73</f>
-        <v>5.7600000000000005E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <f>F73/C73</f>
-        <v>0.11180124223602486</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="3">
-        <v>2</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.36709999999999998</v>
-      </c>
-      <c r="D74" s="3">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="E74" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F74" s="3">
-        <f>D74-E74</f>
-        <v>5.8699999999999995E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <f>F74/C74</f>
-        <v>0.15990193407790793</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="3">
-        <v>2</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="D75" s="3">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F75" s="3">
-        <f>D75-E75</f>
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="G75" s="3">
-        <f>F75/C75</f>
-        <v>0.15216881594372803</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="3">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.44350000000000001</v>
-      </c>
-      <c r="D76" s="3">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="F76" s="3">
-        <f>D76-E76</f>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <f>F76/C76</f>
-        <v>0.15535512965050732</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="3">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.24590000000000001</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="F77" s="3">
-        <f>D77-E77</f>
-        <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <f>F77/C77</f>
-        <v>0.20211468076453842</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I84">
-    <sortCondition ref="A2:A84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J114">
+    <sortCondition ref="A2:A114"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KOH_data.xlsx
+++ b/data/KOH_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahbritton/Documents/Dissertation/Ch4_DietTradeOffs/tradeoff_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B402760-AFC8-D643-A469-B7C69DF58403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C09E8-6FB7-D741-B006-E0512613906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{F3F8205F-0BC4-1940-892C-1E5A2C216DA4}"/>
   </bookViews>
@@ -420,9 +420,6 @@
     <t>T365</t>
   </si>
   <si>
-    <t>T3456</t>
-  </si>
-  <si>
     <t>Thorax in 2 pieces- but seems ok!</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>exclude</t>
+  </si>
+  <si>
+    <t>T346</t>
   </si>
 </sst>
 </file>
@@ -5773,16 +5773,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6083,25 +6083,25 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6121,11 +6121,11 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="F2" s="2">
-        <f>D2-E2</f>
+        <f t="shared" ref="F2:F33" si="0">D2-E2</f>
         <v>6.8699999999999997E-2</v>
       </c>
       <c r="G2" s="2">
-        <f>F2/C2</f>
+        <f t="shared" ref="G2:G33" si="1">F2/C2</f>
         <v>9.6801465407918841E-2</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6152,11 +6152,11 @@
         <v>1.84E-2</v>
       </c>
       <c r="F3" s="2">
-        <f>D3-E3</f>
+        <f t="shared" si="0"/>
         <v>7.7299999999999994E-2</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/C3</f>
+        <f t="shared" si="1"/>
         <v>0.10412176724137931</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -6183,11 +6183,11 @@
         <v>1.83E-2</v>
       </c>
       <c r="F4" s="2">
-        <f>D4-E4</f>
+        <f t="shared" si="0"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/C4</f>
+        <f t="shared" si="1"/>
         <v>9.9770796818120525E-2</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -6214,11 +6214,11 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="F5" s="2">
-        <f>D5-E5</f>
+        <f t="shared" si="0"/>
         <v>7.8399999999999997E-2</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/C5</f>
+        <f t="shared" si="1"/>
         <v>0.15420928402832415</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -6245,11 +6245,11 @@
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="F6" s="2">
-        <f>D6-E6</f>
+        <f t="shared" si="0"/>
         <v>5.7899999999999993E-2</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/C6</f>
+        <f t="shared" si="1"/>
         <v>0.12277353689567429</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -6276,11 +6276,11 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="F7" s="2">
-        <f>D7-E7</f>
+        <f t="shared" si="0"/>
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/C7</f>
+        <f t="shared" si="1"/>
         <v>0.10701778960638744</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -6307,11 +6307,11 @@
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="F8" s="2">
-        <f>D8-E8</f>
+        <f t="shared" si="0"/>
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/C8</f>
+        <f t="shared" si="1"/>
         <v>0.16356877323420074</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -6338,11 +6338,11 @@
         <v>1.38E-2</v>
       </c>
       <c r="F9" s="2">
-        <f>D9-E9</f>
+        <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/C9</f>
+        <f t="shared" si="1"/>
         <v>0.13981358189081225</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -6369,11 +6369,11 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="F10" s="2">
-        <f>D10-E10</f>
+        <f t="shared" si="0"/>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/C10</f>
+        <f t="shared" si="1"/>
         <v>9.8243180767452601E-2</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -6397,11 +6397,11 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="F11" s="2">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
         <v>8.5300000000000001E-2</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/C11</f>
+        <f t="shared" si="1"/>
         <v>0.15872720506140678</v>
       </c>
     </row>
@@ -6422,11 +6422,11 @@
         <v>1.15E-2</v>
       </c>
       <c r="F12" s="2">
-        <f>D12-E12</f>
+        <f t="shared" si="0"/>
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/C12</f>
+        <f t="shared" si="1"/>
         <v>0.15388007054673722</v>
       </c>
     </row>
@@ -6447,11 +6447,11 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="F13" s="2">
-        <f>D13-E13</f>
+        <f t="shared" si="0"/>
         <v>8.7000000000000008E-2</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/C13</f>
+        <f t="shared" si="1"/>
         <v>0.14121084239571499</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -6475,11 +6475,11 @@
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="F14" s="2">
-        <f>D14-E14</f>
+        <f t="shared" si="0"/>
         <v>9.2100000000000001E-2</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/C14</f>
+        <f t="shared" si="1"/>
         <v>0.12289831865492395</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -6503,11 +6503,11 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="F15" s="2">
-        <f>D15-E15</f>
+        <f t="shared" si="0"/>
         <v>7.7799999999999994E-2</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/C15</f>
+        <f t="shared" si="1"/>
         <v>0.12706189776253471</v>
       </c>
     </row>
@@ -6528,11 +6528,11 @@
         <v>1.29E-2</v>
       </c>
       <c r="F16" s="2">
-        <f>D16-E16</f>
+        <f t="shared" si="0"/>
         <v>6.5300000000000011E-2</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/C16</f>
+        <f t="shared" si="1"/>
         <v>0.13010559872484562</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -6541,7 +6541,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -6556,11 +6556,11 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="F17" s="2">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/C17</f>
+        <f t="shared" si="1"/>
         <v>0.12152144853566656</v>
       </c>
     </row>
@@ -6581,11 +6581,11 @@
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="F18" s="2">
-        <f>D18-E18</f>
+        <f t="shared" si="0"/>
         <v>0.1178</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/C18</f>
+        <f t="shared" si="1"/>
         <v>0.17561121049493145</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -6612,11 +6612,11 @@
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="F19" s="2">
-        <f>D19-E19</f>
+        <f t="shared" si="0"/>
         <v>0.11200000000000002</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/C19</f>
+        <f t="shared" si="1"/>
         <v>0.12839619396996449</v>
       </c>
     </row>
@@ -6637,11 +6637,11 @@
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="F20" s="2">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/C20</f>
+        <f t="shared" si="1"/>
         <v>0.10332611690612084</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -6650,7 +6650,7 @@
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
@@ -6665,11 +6665,11 @@
         <v>1.15E-2</v>
       </c>
       <c r="F21" s="2">
-        <f>D21-E21</f>
+        <f t="shared" si="0"/>
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/C21</f>
+        <f t="shared" si="1"/>
         <v>0.14800405953991883</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -6678,7 +6678,7 @@
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -6693,11 +6693,11 @@
         <v>1.12E-2</v>
       </c>
       <c r="F22" s="2">
-        <f>D22-E22</f>
+        <f t="shared" si="0"/>
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/C22</f>
+        <f t="shared" si="1"/>
         <v>0.1213640922768305</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -6706,7 +6706,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2">
         <v>6</v>
@@ -6721,17 +6721,17 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="F23" s="2">
-        <f>D23-E23</f>
+        <f t="shared" si="0"/>
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/C23</f>
+        <f t="shared" si="1"/>
         <v>0.12773359840954274</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2">
         <v>6</v>
@@ -6746,15 +6746,15 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="F24" s="2">
-        <f>D24-E24</f>
+        <f t="shared" si="0"/>
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/C24</f>
+        <f t="shared" si="1"/>
         <v>0.12133586116377425</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -6774,11 +6774,11 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="F25" s="2">
-        <f>D25-E25</f>
+        <f t="shared" si="0"/>
         <v>6.5599999999999992E-2</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/C25</f>
+        <f t="shared" si="1"/>
         <v>0.10086100861008609</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -6805,11 +6805,11 @@
         <v>1.24E-2</v>
       </c>
       <c r="F26" s="2">
-        <f>D26-E26</f>
+        <f t="shared" si="0"/>
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/C26</f>
+        <f t="shared" si="1"/>
         <v>0.14890762744346492</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -6833,11 +6833,11 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="F27" s="2">
-        <f>D27-E27</f>
+        <f t="shared" si="0"/>
         <v>5.8300000000000005E-2</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/C27</f>
+        <f t="shared" si="1"/>
         <v>0.16171983356449376</v>
       </c>
     </row>
@@ -6858,11 +6858,11 @@
         <v>1.34E-2</v>
       </c>
       <c r="F28" s="2">
-        <f>D28-E28</f>
+        <f t="shared" si="0"/>
         <v>8.2799999999999999E-2</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/C28</f>
+        <f t="shared" si="1"/>
         <v>0.14754098360655737</v>
       </c>
     </row>
@@ -6883,11 +6883,11 @@
         <v>1.12E-2</v>
       </c>
       <c r="F29" s="2">
-        <f>D29-E29</f>
+        <f t="shared" si="0"/>
         <v>6.6599999999999993E-2</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/C29</f>
+        <f t="shared" si="1"/>
         <v>0.13107655973233615</v>
       </c>
     </row>
@@ -6908,11 +6908,11 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F30" s="2">
-        <f>D30-E30</f>
+        <f t="shared" si="0"/>
         <v>7.6799999999999993E-2</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/C30</f>
+        <f t="shared" si="1"/>
         <v>0.1292059219380888</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -6936,11 +6936,11 @@
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="F31" s="2">
-        <f>D31-E31</f>
+        <f t="shared" si="0"/>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/C31</f>
+        <f t="shared" si="1"/>
         <v>0.11980976769709166</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -6964,11 +6964,11 @@
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="F32" s="2">
-        <f>D32-E32</f>
+        <f t="shared" si="0"/>
         <v>6.8999999999999992E-2</v>
       </c>
       <c r="G32" s="2">
-        <f>F32/C32</f>
+        <f t="shared" si="1"/>
         <v>0.11234125691957017</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -6992,18 +6992,18 @@
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="F33" s="2">
-        <f>D33-E33</f>
+        <f t="shared" si="0"/>
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/C33</f>
+        <f t="shared" si="1"/>
         <v>0.11213047910295619</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -7023,11 +7023,11 @@
         <v>1.78E-2</v>
       </c>
       <c r="F34" s="2">
-        <f>D34-E34</f>
+        <f t="shared" ref="F34:F65" si="2">D34-E34</f>
         <v>9.7100000000000006E-2</v>
       </c>
       <c r="G34" s="2">
-        <f>F34/C34</f>
+        <f t="shared" ref="G34:G65" si="3">F34/C34</f>
         <v>0.11905345757724375</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -7054,11 +7054,11 @@
         <v>1.44E-2</v>
       </c>
       <c r="F35" s="2">
-        <f>D35-E35</f>
+        <f t="shared" si="2"/>
         <v>7.9100000000000004E-2</v>
       </c>
       <c r="G35" s="2">
-        <f>F35/C35</f>
+        <f t="shared" si="3"/>
         <v>0.14277978339350181</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -7082,11 +7082,11 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F36" s="2">
-        <f>D36-E36</f>
+        <f t="shared" si="2"/>
         <v>9.4E-2</v>
       </c>
       <c r="G36" s="2">
-        <f>F36/C36</f>
+        <f t="shared" si="3"/>
         <v>0.14154494804999246</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -7095,7 +7095,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -7110,11 +7110,11 @@
         <v>1.34E-2</v>
       </c>
       <c r="F37" s="2">
-        <f>D37-E37</f>
+        <f t="shared" si="2"/>
         <v>8.8300000000000003E-2</v>
       </c>
       <c r="G37" s="2">
-        <f>F37/C37</f>
+        <f t="shared" si="3"/>
         <v>0.14770826363332218</v>
       </c>
     </row>
@@ -7135,23 +7135,23 @@
         <v>1.95E-2</v>
       </c>
       <c r="F38" s="2">
-        <f>D38-E38</f>
+        <f t="shared" si="2"/>
         <v>9.7799999999999998E-2</v>
       </c>
       <c r="G38" s="2">
-        <f>F38/C38</f>
+        <f t="shared" si="3"/>
         <v>0.12596599690880989</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="2">
         <v>6</v>
@@ -7166,11 +7166,11 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="F39" s="2">
-        <f>D39-E39</f>
+        <f t="shared" si="2"/>
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="G39" s="2">
-        <f>F39/C39</f>
+        <f t="shared" si="3"/>
         <v>0.1359574063510173</v>
       </c>
     </row>
@@ -7191,18 +7191,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F40" s="2">
-        <f>D40-E40</f>
+        <f t="shared" si="2"/>
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="G40" s="2">
-        <f>F40/C40</f>
+        <f t="shared" si="3"/>
         <v>0.15850659512631346</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7222,11 +7222,11 @@
         <v>1.04E-2</v>
       </c>
       <c r="F41" s="2">
-        <f>D41-E41</f>
+        <f t="shared" si="2"/>
         <v>7.1099999999999997E-2</v>
       </c>
       <c r="G41" s="2">
-        <f>F41/C41</f>
+        <f t="shared" si="3"/>
         <v>0.14778632300976927</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -7250,18 +7250,18 @@
         <v>1.37E-2</v>
       </c>
       <c r="F42" s="2">
-        <f>D42-E42</f>
+        <f t="shared" si="2"/>
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="G42" s="2">
-        <f>F42/C42</f>
+        <f t="shared" si="3"/>
         <v>0.12571554381329811</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,17 +7281,17 @@
         <v>1.12E-2</v>
       </c>
       <c r="F43" s="2">
-        <f>D43-E43</f>
+        <f t="shared" si="2"/>
         <v>7.1899999999999992E-2</v>
       </c>
       <c r="G43" s="2">
-        <f>F43/C43</f>
+        <f t="shared" si="3"/>
         <v>0.12147322182801149</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2">
         <v>6</v>
@@ -7306,18 +7306,18 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="F44" s="2">
-        <f>D44-E44</f>
+        <f t="shared" si="2"/>
         <v>9.3400000000000011E-2</v>
       </c>
       <c r="G44" s="2">
-        <f>F44/C44</f>
+        <f t="shared" si="3"/>
         <v>0.12352863377860072</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -7337,18 +7337,18 @@
         <v>1.61E-2</v>
       </c>
       <c r="F45" s="2">
-        <f>D45-E45</f>
+        <f t="shared" si="2"/>
         <v>8.3099999999999993E-2</v>
       </c>
       <c r="G45" s="2">
-        <f>F45/C45</f>
+        <f t="shared" si="3"/>
         <v>0.16720321931589535</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7368,11 +7368,11 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="F46" s="2">
-        <f>D46-E46</f>
+        <f t="shared" si="2"/>
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="G46" s="2">
-        <f>F46/C46</f>
+        <f t="shared" si="3"/>
         <v>0.16470588235294117</v>
       </c>
     </row>
@@ -7393,11 +7393,11 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="F47" s="2">
-        <f>D47-E47</f>
+        <f t="shared" si="2"/>
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="G47" s="2">
-        <f>F47/C47</f>
+        <f t="shared" si="3"/>
         <v>9.6223411951960644E-2</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -7409,7 +7409,7 @@
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="2">
         <v>6</v>
@@ -7424,11 +7424,11 @@
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="F48" s="2">
-        <f>D48-E48</f>
+        <f t="shared" si="2"/>
         <v>0.10110000000000001</v>
       </c>
       <c r="G48" s="2">
-        <f>F48/C48</f>
+        <f t="shared" si="3"/>
         <v>0.12461481572784421</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -7437,7 +7437,7 @@
     </row>
     <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2">
         <v>6</v>
@@ -7452,15 +7452,15 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="F49" s="2">
-        <f>D49-E49</f>
+        <f t="shared" si="2"/>
         <v>6.93E-2</v>
       </c>
       <c r="G49" s="2">
-        <f>F49/C49</f>
+        <f t="shared" si="3"/>
         <v>0.14145744029393753</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7480,11 +7480,11 @@
         <v>1.23E-2</v>
       </c>
       <c r="F50" s="2">
-        <f>D50-E50</f>
+        <f t="shared" si="2"/>
         <v>6.989999999999999E-2</v>
       </c>
       <c r="G50" s="2">
-        <f>F50/C50</f>
+        <f t="shared" si="3"/>
         <v>0.15302101576182134</v>
       </c>
     </row>
@@ -7505,18 +7505,18 @@
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="F51" s="2">
-        <f>D51-E51</f>
+        <f t="shared" si="2"/>
         <v>8.660000000000001E-2</v>
       </c>
       <c r="G51" s="2">
-        <f>F51/C51</f>
+        <f t="shared" si="3"/>
         <v>0.13428438517599628</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -7536,11 +7536,11 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="F52" s="2">
-        <f>D52-E52</f>
+        <f t="shared" si="2"/>
         <v>6.93E-2</v>
       </c>
       <c r="G52" s="2">
-        <f>F52/C52</f>
+        <f t="shared" si="3"/>
         <v>0.13561643835616438</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -7564,11 +7564,11 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="F53" s="2">
-        <f>D53-E53</f>
+        <f t="shared" si="2"/>
         <v>7.9299999999999995E-2</v>
       </c>
       <c r="G53" s="2">
-        <f>F53/C53</f>
+        <f t="shared" si="3"/>
         <v>0.12904800650935719</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -7595,11 +7595,11 @@
         <v>1.41E-2</v>
       </c>
       <c r="F54" s="2">
-        <f>D54-E54</f>
+        <f t="shared" si="2"/>
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="G54" s="2">
-        <f>F54/C54</f>
+        <f t="shared" si="3"/>
         <v>0.14812112367748995</v>
       </c>
     </row>
@@ -7620,11 +7620,11 @@
         <v>8.6E-3</v>
       </c>
       <c r="F55" s="2">
-        <f>D55-E55</f>
+        <f t="shared" si="2"/>
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="G55" s="2">
-        <f>F55/C55</f>
+        <f t="shared" si="3"/>
         <v>0.15632530120481927</v>
       </c>
     </row>
@@ -7645,11 +7645,11 @@
         <v>1.01E-2</v>
       </c>
       <c r="F56" s="2">
-        <f>D56-E56</f>
+        <f t="shared" si="2"/>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="G56" s="2">
-        <f>F56/C56</f>
+        <f t="shared" si="3"/>
         <v>0.1159702549575071</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -7658,7 +7658,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2">
         <v>6</v>
@@ -7673,11 +7673,11 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F57" s="2">
-        <f>D57-E57</f>
+        <f t="shared" si="2"/>
         <v>6.0500000000000005E-2</v>
       </c>
       <c r="G57" s="2">
-        <f>F57/C57</f>
+        <f t="shared" si="3"/>
         <v>0.13462394303515798</v>
       </c>
     </row>
@@ -7698,11 +7698,11 @@
         <v>1.14E-2</v>
       </c>
       <c r="F58" s="2">
-        <f>D58-E58</f>
+        <f t="shared" si="2"/>
         <v>6.9399999999999989E-2</v>
       </c>
       <c r="G58" s="2">
-        <f>F58/C58</f>
+        <f t="shared" si="3"/>
         <v>0.12457368515526833</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -7726,11 +7726,11 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="F59" s="2">
-        <f>D59-E59</f>
+        <f t="shared" si="2"/>
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="G59" s="2">
-        <f>F59/C59</f>
+        <f t="shared" si="3"/>
         <v>0.12890120036934441</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -7754,11 +7754,11 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="F60" s="2">
-        <f>D60-E60</f>
+        <f t="shared" si="2"/>
         <v>8.4099999999999994E-2</v>
       </c>
       <c r="G60" s="2">
-        <f>F60/C60</f>
+        <f t="shared" si="3"/>
         <v>0.15565426614843605</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -7782,17 +7782,17 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="F61" s="2">
-        <f>D61-E61</f>
+        <f t="shared" si="2"/>
         <v>6.4700000000000008E-2</v>
       </c>
       <c r="G61" s="2">
-        <f>F61/C61</f>
+        <f t="shared" si="3"/>
         <v>0.12746256895193064</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2">
         <v>6</v>
@@ -7807,11 +7807,11 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="F62" s="2">
-        <f>D62-E62</f>
+        <f t="shared" si="2"/>
         <v>4.99E-2</v>
       </c>
       <c r="G62" s="2">
-        <f>F62/C62</f>
+        <f t="shared" si="3"/>
         <v>0.14612005856515373</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -7835,11 +7835,11 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F63" s="2">
-        <f>D63-E63</f>
+        <f t="shared" si="2"/>
         <v>6.3899999999999998E-2</v>
       </c>
       <c r="G63" s="2">
-        <f>F63/C63</f>
+        <f t="shared" si="3"/>
         <v>0.14716720405343162</v>
       </c>
     </row>
@@ -7860,11 +7860,11 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="F64" s="2">
-        <f>D64-E64</f>
+        <f t="shared" si="2"/>
         <v>5.2400000000000002E-2</v>
       </c>
       <c r="G64" s="2">
-        <f>F64/C64</f>
+        <f t="shared" si="3"/>
         <v>0.1529034140647797</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -7888,11 +7888,11 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="F65" s="2">
-        <f>D65-E65</f>
+        <f t="shared" si="2"/>
         <v>5.8099999999999999E-2</v>
       </c>
       <c r="G65" s="2">
-        <f>F65/C65</f>
+        <f t="shared" si="3"/>
         <v>0.13384012900253398</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -7916,11 +7916,11 @@
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="F66" s="2">
-        <f>D66-E66</f>
+        <f t="shared" ref="F66:F97" si="4">D66-E66</f>
         <v>3.9599999999999996E-2</v>
       </c>
       <c r="G66" s="2">
-        <f>F66/C66</f>
+        <f t="shared" ref="G66:G97" si="5">F66/C66</f>
         <v>0.15695600475624255</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -7944,11 +7944,11 @@
         <v>7.6E-3</v>
       </c>
       <c r="F67" s="2">
-        <f>D67-E67</f>
+        <f t="shared" si="4"/>
         <v>4.8799999999999996E-2</v>
       </c>
       <c r="G67" s="2">
-        <f>F67/C67</f>
+        <f t="shared" si="5"/>
         <v>0.1096629213483146</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -7972,11 +7972,11 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="F68" s="2">
-        <f>D68-E68</f>
+        <f t="shared" si="4"/>
         <v>5.0300000000000004E-2</v>
       </c>
       <c r="G68" s="2">
-        <f>F68/C68</f>
+        <f t="shared" si="5"/>
         <v>0.14707602339181286</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -8000,11 +8000,11 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="F69" s="2">
-        <f>D69-E69</f>
+        <f t="shared" si="4"/>
         <v>5.9800000000000006E-2</v>
       </c>
       <c r="G69" s="2">
-        <f>F69/C69</f>
+        <f t="shared" si="5"/>
         <v>0.13842592592592595</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -8013,7 +8013,7 @@
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B70" s="2">
         <v>5</v>
@@ -8028,15 +8028,15 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="F70" s="2">
-        <f>D70-E70</f>
+        <f t="shared" si="4"/>
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="G70" s="2">
-        <f>F70/C70</f>
+        <f t="shared" si="5"/>
         <v>0.14598041448417218</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>28</v>
@@ -8059,11 +8059,11 @@
         <v>1.26E-2</v>
       </c>
       <c r="F71" s="2">
-        <f>D71-E71</f>
+        <f t="shared" si="4"/>
         <v>6.7400000000000002E-2</v>
       </c>
       <c r="G71" s="2">
-        <f>F71/C71</f>
+        <f t="shared" si="5"/>
         <v>0.11803852889667252</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -8087,17 +8087,17 @@
         <v>1.24E-2</v>
       </c>
       <c r="F72" s="2">
-        <f>D72-E72</f>
+        <f t="shared" si="4"/>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="G72" s="2">
-        <f>F72/C72</f>
+        <f t="shared" si="5"/>
         <v>0.13798188329471245</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2">
         <v>6</v>
@@ -8112,11 +8112,11 @@
         <v>7.6E-3</v>
       </c>
       <c r="F73" s="2">
-        <f>D73-E73</f>
+        <f t="shared" si="4"/>
         <v>4.6799999999999994E-2</v>
       </c>
       <c r="G73" s="2">
-        <f>F73/C73</f>
+        <f t="shared" si="5"/>
         <v>0.15249266862170086</v>
       </c>
     </row>
@@ -8137,11 +8137,11 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="F74" s="2">
-        <f>D74-E74</f>
+        <f t="shared" si="4"/>
         <v>6.720000000000001E-2</v>
       </c>
       <c r="G74" s="2">
-        <f>F74/C74</f>
+        <f t="shared" si="5"/>
         <v>0.13112195121951223</v>
       </c>
     </row>
@@ -8162,11 +8162,11 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="F75" s="2">
-        <f>D75-E75</f>
+        <f t="shared" si="4"/>
         <v>5.7900000000000007E-2</v>
       </c>
       <c r="G75" s="2">
-        <f>F75/C75</f>
+        <f t="shared" si="5"/>
         <v>0.14275147928994084</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -8190,15 +8190,15 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="F76" s="2">
-        <f>D76-E76</f>
+        <f t="shared" si="4"/>
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="G76" s="2">
-        <f>F76/C76</f>
+        <f t="shared" si="5"/>
         <v>0.13289422704378148</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -8218,11 +8218,11 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="F77" s="2">
-        <f>D77-E77</f>
+        <f t="shared" si="4"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="G77" s="2">
-        <f>F77/C77</f>
+        <f t="shared" si="5"/>
         <v>0.15668044077134985</v>
       </c>
     </row>
@@ -8243,11 +8243,11 @@
         <v>1.15E-2</v>
       </c>
       <c r="F78" s="2">
-        <f>D78-E78</f>
+        <f t="shared" si="4"/>
         <v>6.6200000000000009E-2</v>
       </c>
       <c r="G78" s="2">
-        <f>F78/C78</f>
+        <f t="shared" si="5"/>
         <v>0.14088103851883382</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -8271,11 +8271,11 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="F79" s="2">
-        <f>D79-E79</f>
+        <f t="shared" si="4"/>
         <v>6.9100000000000009E-2</v>
       </c>
       <c r="G79" s="2">
-        <f>F79/C79</f>
+        <f t="shared" si="5"/>
         <v>0.14206414473684212</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -8299,11 +8299,11 @@
         <v>1.15E-2</v>
       </c>
       <c r="F80" s="2">
-        <f>D80-E80</f>
+        <f t="shared" si="4"/>
         <v>6.770000000000001E-2</v>
       </c>
       <c r="G80" s="2">
-        <f>F80/C80</f>
+        <f t="shared" si="5"/>
         <v>0.15467214987434319</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -8330,11 +8330,11 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="F81" s="2">
-        <f>D81-E81</f>
+        <f t="shared" si="4"/>
         <v>4.6799999999999994E-2</v>
       </c>
       <c r="G81" s="2">
-        <f>F81/C81</f>
+        <f t="shared" si="5"/>
         <v>0.17092768444119794</v>
       </c>
     </row>
@@ -8355,11 +8355,11 @@
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="F82" s="2">
-        <f>D82-E82</f>
+        <f t="shared" si="4"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="G82" s="2">
-        <f>F82/C82</f>
+        <f t="shared" si="5"/>
         <v>0.14616588419405321</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -8383,18 +8383,18 @@
         <v>1.37E-2</v>
       </c>
       <c r="F83" s="2">
-        <f>D83-E83</f>
+        <f t="shared" si="4"/>
         <v>6.7099999999999993E-2</v>
       </c>
       <c r="G83" s="2">
-        <f>F83/C83</f>
+        <f t="shared" si="5"/>
         <v>0.1418304798139928</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -8414,11 +8414,11 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="F84" s="2">
-        <f>D84-E84</f>
+        <f t="shared" si="4"/>
         <v>4.8799999999999996E-2</v>
       </c>
       <c r="G84" s="2">
-        <f>F84/C84</f>
+        <f t="shared" si="5"/>
         <v>0.1515527950310559</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -8442,11 +8442,11 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="F85" s="2">
-        <f>D85-E85</f>
+        <f t="shared" si="4"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="G85" s="2">
-        <f>F85/C85</f>
+        <f t="shared" si="5"/>
         <v>0.1736111111111111</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -8470,11 +8470,11 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="F86" s="2">
-        <f>D86-E86</f>
+        <f t="shared" si="4"/>
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="G86" s="2">
-        <f>F86/C86</f>
+        <f t="shared" si="5"/>
         <v>0.16880180859080632</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -8498,11 +8498,11 @@
         <v>1.41E-2</v>
       </c>
       <c r="F87" s="2">
-        <f>D87-E87</f>
+        <f t="shared" si="4"/>
         <v>7.5600000000000001E-2</v>
       </c>
       <c r="G87" s="2">
-        <f>F87/C87</f>
+        <f t="shared" si="5"/>
         <v>0.14261460101867571</v>
       </c>
     </row>
@@ -8523,11 +8523,11 @@
         <v>1.01E-2</v>
       </c>
       <c r="F88" s="2">
-        <f>D88-E88</f>
+        <f t="shared" si="4"/>
         <v>6.5799999999999997E-2</v>
       </c>
       <c r="G88" s="2">
-        <f>F88/C88</f>
+        <f t="shared" si="5"/>
         <v>0.12871674491392801</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -8551,18 +8551,18 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="F89" s="2">
-        <f>D89-E89</f>
+        <f t="shared" si="4"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="G89" s="2">
-        <f>F89/C89</f>
+        <f t="shared" si="5"/>
         <v>0.11484823625922885</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -8582,11 +8582,11 @@
         <v>1.01E-2</v>
       </c>
       <c r="F90" s="2">
-        <f>D90-E90</f>
+        <f t="shared" si="4"/>
         <v>5.9800000000000006E-2</v>
       </c>
       <c r="G90" s="2">
-        <f>F90/C90</f>
+        <f t="shared" si="5"/>
         <v>0.16049382716049385</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -8610,11 +8610,11 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="F91" s="2">
-        <f>D91-E91</f>
+        <f t="shared" si="4"/>
         <v>5.7800000000000004E-2</v>
       </c>
       <c r="G91" s="2">
-        <f>F91/C91</f>
+        <f t="shared" si="5"/>
         <v>0.15874759681406209</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -8638,11 +8638,11 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="F92" s="2">
-        <f>D92-E92</f>
+        <f t="shared" si="4"/>
         <v>5.8699999999999995E-2</v>
       </c>
       <c r="G92" s="2">
-        <f>F92/C92</f>
+        <f t="shared" si="5"/>
         <v>0.14141170802216332</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -8666,11 +8666,11 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="F93" s="2">
-        <f>D93-E93</f>
+        <f t="shared" si="4"/>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="G93" s="2">
-        <f>F93/C93</f>
+        <f t="shared" si="5"/>
         <v>0.16108037748128864</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -8694,11 +8694,11 @@
         <v>8.6E-3</v>
       </c>
       <c r="F94" s="2">
-        <f>D94-E94</f>
+        <f t="shared" si="4"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G94" s="2">
-        <f>F94/C94</f>
+        <f t="shared" si="5"/>
         <v>0.17388059701492536</v>
       </c>
     </row>
@@ -8719,18 +8719,18 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="F95" s="2">
-        <f>D95-E95</f>
+        <f t="shared" si="4"/>
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="G95" s="2">
-        <f>F95/C95</f>
+        <f t="shared" si="5"/>
         <v>0.17854571634269256</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -8750,11 +8750,11 @@
         <v>1.54E-2</v>
       </c>
       <c r="F96" s="2">
-        <f>D96-E96</f>
+        <f t="shared" si="4"/>
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="G96" s="2">
-        <f>F96/C96</f>
+        <f t="shared" si="5"/>
         <v>0.15887850467289719</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -8778,11 +8778,11 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="F97" s="2">
-        <f>D97-E97</f>
+        <f t="shared" si="4"/>
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="G97" s="2">
-        <f>F97/C97</f>
+        <f t="shared" si="5"/>
         <v>0.12534477474716518</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -8809,11 +8809,11 @@
         <v>1.38E-2</v>
       </c>
       <c r="F98" s="2">
-        <f>D98-E98</f>
+        <f t="shared" ref="F98:F108" si="6">D98-E98</f>
         <v>7.3099999999999998E-2</v>
       </c>
       <c r="G98" s="2">
-        <f>F98/C98</f>
+        <f t="shared" ref="G98:G108" si="7">F98/C98</f>
         <v>0.15583031336602002</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -8837,11 +8837,11 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="F99" s="2">
-        <f>D99-E99</f>
+        <f t="shared" si="6"/>
         <v>5.7600000000000005E-2</v>
       </c>
       <c r="G99" s="2">
-        <f>F99/C99</f>
+        <f t="shared" si="7"/>
         <v>0.11180124223602486</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -8868,11 +8868,11 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F100" s="2">
-        <f>D100-E100</f>
+        <f t="shared" si="6"/>
         <v>5.8699999999999995E-2</v>
       </c>
       <c r="G100" s="2">
-        <f>F100/C100</f>
+        <f t="shared" si="7"/>
         <v>0.15990193407790793</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -8896,11 +8896,11 @@
         <v>0.01</v>
       </c>
       <c r="F101" s="2">
-        <f>D101-E101</f>
+        <f t="shared" si="6"/>
         <v>6.4899999999999999E-2</v>
       </c>
       <c r="G101" s="2">
-        <f>F101/C101</f>
+        <f t="shared" si="7"/>
         <v>0.15216881594372803</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -8909,7 +8909,7 @@
     </row>
     <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2">
         <v>6</v>
@@ -8924,15 +8924,15 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="F102" s="2">
-        <f>D102-E102</f>
+        <f t="shared" si="6"/>
         <v>7.4700000000000003E-2</v>
       </c>
       <c r="G102" s="2">
-        <f>F102/C102</f>
+        <f t="shared" si="7"/>
         <v>0.15673520772135963</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8952,11 +8952,11 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="F103" s="2">
-        <f>D103-E103</f>
+        <f t="shared" si="6"/>
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="G103" s="2">
-        <f>F103/C103</f>
+        <f t="shared" si="7"/>
         <v>0.15579994763026969</v>
       </c>
     </row>
@@ -8977,18 +8977,18 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="F104" s="2">
-        <f>D104-E104</f>
+        <f t="shared" si="6"/>
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="G104" s="2">
-        <f>F104/C104</f>
+        <f t="shared" si="7"/>
         <v>0.15535512965050732</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -9008,11 +9008,11 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F105" s="2">
-        <f>D105-E105</f>
+        <f t="shared" si="6"/>
         <v>5.45E-2</v>
       </c>
       <c r="G105" s="2">
-        <f>F105/C105</f>
+        <f t="shared" si="7"/>
         <v>0.16836577077540935</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -9036,11 +9036,11 @@
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="F106" s="2">
-        <f>D106-E106</f>
+        <f t="shared" si="6"/>
         <v>8.1599999999999992E-2</v>
       </c>
       <c r="G106" s="2">
-        <f>F106/C106</f>
+        <f t="shared" si="7"/>
         <v>0.16238805970149253</v>
       </c>
     </row>
@@ -9061,11 +9061,11 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="F107" s="2">
-        <f>D107-E107</f>
+        <f t="shared" si="6"/>
         <v>5.7700000000000008E-2</v>
       </c>
       <c r="G107" s="2">
-        <f>F107/C107</f>
+        <f t="shared" si="7"/>
         <v>0.16822157434402332</v>
       </c>
     </row>
@@ -9086,11 +9086,11 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="F108" s="2">
-        <f>D108-E108</f>
+        <f t="shared" si="6"/>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="G108" s="2">
-        <f>F108/C108</f>
+        <f t="shared" si="7"/>
         <v>0.20211468076453842</v>
       </c>
       <c r="H108" s="3" t="s">

--- a/data/KOH_data.xlsx
+++ b/data/KOH_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahbritton/Documents/Dissertation/Ch4_DietTradeOffs/tradeoff_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahbritton/Documents/Dissertation/Ch3_DietTradeOffs/tradeoff_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C09E8-6FB7-D741-B006-E0512613906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E493B2-B858-C24F-A543-664B01840E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{F3F8205F-0BC4-1940-892C-1E5A2C216DA4}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{F3F8205F-0BC4-1940-892C-1E5A2C216DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Preliminary" sheetId="1" r:id="rId1"/>
     <sheet name="KOH_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KOH_data!$A$1:$J$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KOH_data!$A$1:$J$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
   <si>
     <t>Sample ID</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>T346</t>
+  </si>
+  <si>
+    <t>T477</t>
   </si>
 </sst>
 </file>
@@ -578,71 +581,16 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>KOH Methods</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.1443988359402861E-2"/>
+          <c:x val="7.5587356418065743E-2"/>
           <c:y val="1.2714474158840611E-2"/>
-          <c:w val="0.94905520915186481"/>
+          <c:w val="0.90720695868005685"/>
           <c:h val="0.80748749559582134"/>
         </c:manualLayout>
       </c:layout>
@@ -1739,12 +1687,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1864,37 +1807,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1936,6 +1848,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4294,16 +4207,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>795866</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>156633</xdr:rowOff>
+      <xdr:rowOff>63498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4401,6 +4314,137 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37125</cdr:x>
+      <cdr:y>0.91409</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6261</cdr:x>
+      <cdr:y>0.94206</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3686DB3-782B-0EDE-2E6F-AFF0873A25F4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3564467" y="3873500"/>
+          <a:ext cx="2446867" cy="118534"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39978</cdr:x>
+      <cdr:y>0.89726</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61203</cdr:x>
+      <cdr:y>0.94921</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B079B73-CB5D-2B7A-97ED-5772FF1CA5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3882378" y="3612286"/>
+          <a:ext cx="2061223" cy="209137"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Hours in KOH solution</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00349</cdr:x>
+      <cdr:y>0.105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.04562</cdr:x>
+      <cdr:y>0.56467</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C5B81B-25EB-515E-0A3A-4C19DF2B4B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-686855" y="1143462"/>
+          <a:ext cx="1850564" cy="409115"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thorax mass (g)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4702,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C521A7B3-FD26-6648-8CEF-CFA01B73BA57}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
       <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
@@ -6065,7 +6109,7 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8809,11 +8853,11 @@
         <v>1.38E-2</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F108" si="6">D98-E98</f>
+        <f t="shared" ref="F98:F129" si="6">D98-E98</f>
         <v>7.3099999999999998E-2</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" ref="G98:G108" si="7">F98/C98</f>
+        <f t="shared" ref="G98:G129" si="7">F98/C98</f>
         <v>0.15583031336602002</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -8991,118 +9035,118 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2">
-        <v>0.32369999999999999</v>
+        <v>0.50249999999999995</v>
       </c>
       <c r="D105" s="2">
-        <v>6.1499999999999999E-2</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="E105" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" si="6"/>
-        <v>5.45E-2</v>
+        <v>8.1599999999999992E-2</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" si="7"/>
-        <v>0.16836577077540935</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>83</v>
+        <v>0.16238805970149253</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2">
         <v>5</v>
       </c>
       <c r="C106" s="2">
-        <v>0.50249999999999995</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D106" s="2">
-        <v>9.5799999999999996E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="E106" s="2">
-        <v>1.4200000000000001E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" si="6"/>
-        <v>8.1599999999999992E-2</v>
+        <v>5.7700000000000008E-2</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="7"/>
-        <v>0.16238805970149253</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.16822157434402332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" s="2">
-        <v>0.34300000000000003</v>
+        <v>0.24590000000000001</v>
       </c>
       <c r="D107" s="2">
-        <v>6.6600000000000006E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="E107" s="2">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" si="6"/>
-        <v>5.7700000000000008E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="7"/>
-        <v>0.16822157434402332</v>
+        <v>0.20211468076453842</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C108" s="2">
-        <v>0.24590000000000001</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="D108" s="2">
-        <v>5.8400000000000001E-2</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="E108" s="2">
-        <v>8.6999999999999994E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" si="6"/>
-        <v>4.9700000000000001E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="7"/>
-        <v>0.20211468076453842</v>
+        <v>0.16836577077540935</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J114">
-    <sortCondition ref="A2:A114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
+    <sortCondition ref="A2:A108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
